--- a/500all/speech_level/speeches_CHRG-114hhrg97195.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97195.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. I call to order the Subcommittee on Readiness. I want to welcome everyone this morning, but first I want to thank Rear Admiral Mark R. Whitney, Deputy Commander, Logistics, Maintenance and Industrial Operations, Naval Sea Systems Command [NAVSEA]. Thank you for being with us today.    The Navy's four public shipyards, Norfolk Naval Shipyard in Virginia, Pearl Harbor Naval Shipyard in Hawaii, Portsmouth Naval Shipyard in Maine, and Puget Sound Naval Shipyard in Washington, face a number of challenges in completing ship maintenance on time and within budget.    Wartime requirements, as we know, over the past decade have worsened the condition of our fleet, causing ships to require more maintenance than expected upon arrival at the shipyard.    A few weeks ago, we received testimony about the Navy's Optimized Fleet Response Plan [O-FRP], which, among other things, seeks to provide a more sustainable force generation model and more predictability for ship maintenance.    Today I look forward to hearing about the shipyards' role in meeting the Navy's operational requirements and how they are responding to the maintenance and repair challenges that recent operations have put upon the fleet.    Now I turn to the ranking member, Ms. Bordallo, for any opening remarks she may have. And again, we thank her for her leadership in HASC [House Armed Services Committee] and here in the subcommittee.    Madeleine.    [The prepared statement of Mr. Wittman can be found in the Appendix on page 19.]</t>
   </si>
   <si>
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you. Thank you very much, Mr. Chairman.    And thank you for arranging this hearing on our public shipyards.    Admiral Whitney, thank you for being here today so early.    I very much appreciate what you are doing to try to maintain and enhance the readiness of our fleet. I am hopeful that the O-FRP and your plans with the shipyards can be implemented in a timely manner and will not suffer under a continuing resolution [CR] government shutdown, or sequestration-level budgets.    I am particularly interested in hearing what steps the Navy is taking to bring shipyard staffing up to the levels needed to increase productivity. How are you getting 4,500 new employees up to speed in critical technical areas?    And I also would like to hear specifics regarding infrastructure improvements for the public shipyards, including where the challenges lie, what is being done to meet those challenges, and how well funded the Navy's recapitalization plan is.    We must reset our readiness that has been degraded by years of constant engagement and high operational tempo, and ensure a stable and a predictable funding stream is available for these programs.    And I know the chairman and my colleagues on this subcommittee share that goal. And we look forward to hearing how you plan to ensure our readiness goals are met through engaging our public and private shipyards, and intermediate maintenance repair facilities.    And I yield back, and thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Admiral Whitney. Good morning. Chairman Wittman, Ranking Member Bordallo, and distinguished members of the House Armed Services Readiness Subcommittee, I appreciate the opportunity to testify about the naval shipyards' critical role in meeting the Navy's operational requirements.    I am privileged to have worked in and around the naval shipyards for over 20 years. This includes the honor of having been the commander of a naval shipyard.    Today I am before you representing the more than 33,000 civilian and military dedicated and patriotic professionals who give their life every day to serve our country and fix our ships.    These heroes come to work, put on a hard hat and safety shoes, and stand ready to service our great Navy, any time, any place, to ensure our sailors are always ready to stand the watch.    Today I am prepared to discuss the challenges that this workforce faces to improve performance and reduce the maintenance backlogs at the naval shipyards that have prevented us from getting back to the fleet the ships that they urgently need, as well as discuss the initiatives that we are taking to address those challenges.    The workforce at the naval shipyard is engaged. They are tackling the challenges and embracing the improvement initiatives every single day, and they work towards one goal--the successful delivery of ships back to the fleet.    The four public shipyards--Portsmouth, Norfolk, Puget Sound, and Pearl Harbor--are owned and funded by the fleets and operated by the Naval Sea Systems Command.    The naval shipyards ensure that the Navy has the essential and organic capability to perform cradle-to-grave service for our nuclear-powered aircraft carrier and submarines. The workforce provides the services that are vital to sustain the fleet's operational availability and ensure mission success.    The naval shipyards' performance has been challenged in the past 3 years due to increased workload that is coupled by an increased number of new and less experienced workers.    In fiscal year 2014, the naval shipyards executed 4.7 million man-days of workload. This workload has continued to increase through fiscal year 2015 and will increase through fiscal year 2017, likely peaking in fiscal year 2018. This increase has been caused, in part, by the high operational tempo of the fleet and extended deployments that has been described in previous testimony.    The primary solution is to resolve the workload-to-workforce imbalance by increasing the workforce to the right level so that we can have a fighting chance to get the required maintenance completed on time and on budget.    The solution set also includes training and developing the new workforce and its management team, as well as diligently working on process improvement. We will achieve success by utilizing our apprentice programs and other workforce development efforts in conjunction with productivity improvement initiatives.    The challenge of the last 2 years has been hiring to an appropriate level across the naval shipyards. In fiscal year 2013, the naval shipyards had about 29,000 full-time equivalents. With the impact of sequestration, a hiring freeze, and increased workload, accelerated hiring has been necessary.    The fiscal year 2016 budget supports an increase in the shipyard workforce to achieve 33,500 direct and indirect full-time equivalents. In 2014, this number, including private sector partner assistants, was determined to be the appropriate size workforce needed to execute the increasing workload and reset the workload-to-workforce imbalance.    Shipyard availability performance, warfighter readiness, and fleet forward-deployed presence are directly linked to the capabilities provided by the efficient operation of the naval shipyard facilities.    Naval Sea Systems Command continues to prioritize the sustainment and recapitalization of the naval shipyards' infrastructure.    Investments continue to focus on mission-critical facilities inside the controlled industrial area, which primarily include production shops, piers, wharfs, dry docks, and supporting utility systems.    Naval Sea Systems Command is focused on the naval shipyards' information technology systems, as well. These systems are outdated and a challenge to support as we push to new cybersecurity standards.    Naval Sea Systems Command is implementing solutions to the maintenance information systems to address critical cybersecurity vulnerabilities and increase workforce productivity.    Overall, facility investments are prioritized to address the most critical capability, safety, productivity deficiencies associated with these mission-critical facilities.    The hardworking, dedicated professionals across the naval shipyards stand with me to tackle these challenges face-on. Our focus each and every day is to get our Navy ships back to sea when the fleet needs them in support of O-FRP.    Again, thank you for inviting me here today before this committee, and I thank you for your continued and crucial support of the naval shipyards. I will be glad to take any questions that you have.    [The prepared statement of Admiral Whitney can be found in the Appendix on page 20.]</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. I do have one quick question. And may not even be appropriate to answer it in this setting, to be honest with you. I think you probably, sir, have a great understanding of what readiness means. And what you would feel would be 100 percent readiness within your jurisdiction.    And like I said, it may not be appropriate to answer in this setting, but I would be curious to know what percentage of readiness you feel we are at right now.</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>412523</t>
   </si>
   <si>
-    <t>Scott H. Peters</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peters. Thank you, Mr. Chairman.    Actually Ms. Bordallo asked my question about the sequester and coming up on this month and just want to express my concern that we continue to work with you and the committee on coming up with a strategy--I think O-FRP is a good start--to deal with a tough budget situation.    But we need to get back to a situation where we are doing regular budgets over more than a year, so that there is more dependability and more ability to plan. I want you to know that I have that in mind. Thank you for being with us today.</t>
   </si>
   <si>
@@ -163,9 +148,6 @@
     <t>412444</t>
   </si>
   <si>
-    <t>Vicky Hartzler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman. Thank you, Admiral.    Just wondering when you talked about the workforce and how you are plussing up the number of people that you are hiring to make up for the backlog. So what is the shipyards doing to address the relative inexperience of this workforce?</t>
   </si>
   <si>
@@ -230,9 +212,6 @@
   </si>
   <si>
     <t>412193</t>
-  </si>
-  <si>
-    <t>Joe Courtney</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. And good to see you again, Admiral.    Just to follow up a couple of the comments that the chairman made. Yes, again, it looks like you have made some impressive progress in terms of boosting the hires in the last year or so.    Secretary Perez of the U.S. Department of Labor was up in Groton last summer, where, again, there is nothing as dramatic as what is going on with the public yards, but clearly, you know, the need--what, if nothing else, the sort of a generational refresh is sort of got the apprenticeship programs sort of open for business again.    You know, one of the apprenticeship programs we visited was at the welding area, you know, you have actually two generations of welders that were sort of doing the presentation. One who was in his 60s, another who was his son, who was actually in his sort of late 30s, early 40s.    And they were talking about, sort of--you know, as you, I think I heard you as I just came in, is you know, what is a welder? Again, you can hire someone and put them in that job classification. But what we heard that day was that, you know, really--aside from sort of the initial apprenticeship stint, I mean, the fact of the matter is, is you need somebody looking over the shoulder of that new person for some period of time.    I mean, a year, 2 years or so. And then, they can sort of start doing sort of basic welds, but in terms of a real--sort of master welder, I mean, you are talking years before you really have sort of--got that person up to a qualification.    And frankly, there is a lot of risk in terms of, you know, retention. Because there is--you know, with advanced manufacturing just sort of taking off in aerospace, you know, you name it. The fact of the matter is, is that, you know, sort of holding on to these folks really makes sort of the initial numbers that we see in today's testimony, I mean, really are just sort of the beginning of the challenge for, you know, having a workforce that is ready to take on these challenges.    And I was sort of wondering, I mean, have you sort of built in, sort of the fact that there is going to be attrition over the time period? And frankly, that there is still a gap in terms of timing to get people really up to doing these.    You don't want mistakes. You know better than anybody in terms of submarines or surface ships in terms of bad welds, or people who, you know, really aren't ready for the job.</t>
@@ -679,11 +658,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -703,13 +680,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -731,11 +706,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -755,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -783,11 +754,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -807,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -833,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -859,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -885,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -911,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -937,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -963,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -989,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1015,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1041,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1067,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1095,11 +1042,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1119,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1145,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1171,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1197,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1223,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1249,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1275,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1303,11 +1234,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1327,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1355,11 +1282,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1379,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1405,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1431,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1457,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1483,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1509,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1535,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1561,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1587,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1613,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1641,11 +1546,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1665,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1693,11 +1594,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1717,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1745,11 +1642,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1769,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1797,11 +1690,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1821,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1849,11 +1738,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1873,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1901,11 +1786,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1925,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1951,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1977,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2003,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2029,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
-      </c>
-      <c r="G54" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2055,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2081,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
-      </c>
-      <c r="G56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>72</v>
-      </c>
-      <c r="H56" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2107,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2133,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2161,11 +2026,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2185,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2211,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2237,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2265,11 +2122,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2289,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2317,11 +2170,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97195.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97195.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Wittman</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wittman. I call to order the Subcommittee on Readiness. I want to welcome everyone this morning, but first I want to thank Rear Admiral Mark R. Whitney, Deputy Commander, Logistics, Maintenance and Industrial Operations, Naval Sea Systems Command [NAVSEA]. Thank you for being with us today.    The Navy's four public shipyards, Norfolk Naval Shipyard in Virginia, Pearl Harbor Naval Shipyard in Hawaii, Portsmouth Naval Shipyard in Maine, and Puget Sound Naval Shipyard in Washington, face a number of challenges in completing ship maintenance on time and within budget.    Wartime requirements, as we know, over the past decade have worsened the condition of our fleet, causing ships to require more maintenance than expected upon arrival at the shipyard.    A few weeks ago, we received testimony about the Navy's Optimized Fleet Response Plan [O-FRP], which, among other things, seeks to provide a more sustainable force generation model and more predictability for ship maintenance.    Today I look forward to hearing about the shipyards' role in meeting the Navy's operational requirements and how they are responding to the maintenance and repair challenges that recent operations have put upon the fleet.    Now I turn to the ranking member, Ms. Bordallo, for any opening remarks she may have. And again, we thank her for her leadership in HASC [House Armed Services Committee] and here in the subcommittee.    Madeleine.    [The prepared statement of Mr. Wittman can be found in the Appendix on page 19.]</t>
   </si>
   <si>
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you. Thank you very much, Mr. Chairman.    And thank you for arranging this hearing on our public shipyards.    Admiral Whitney, thank you for being here today so early.    I very much appreciate what you are doing to try to maintain and enhance the readiness of our fleet. I am hopeful that the O-FRP and your plans with the shipyards can be implemented in a timely manner and will not suffer under a continuing resolution [CR] government shutdown, or sequestration-level budgets.    I am particularly interested in hearing what steps the Navy is taking to bring shipyard staffing up to the levels needed to increase productivity. How are you getting 4,500 new employees up to speed in critical technical areas?    And I also would like to hear specifics regarding infrastructure improvements for the public shipyards, including where the challenges lie, what is being done to meet those challenges, and how well funded the Navy's recapitalization plan is.    We must reset our readiness that has been degraded by years of constant engagement and high operational tempo, and ensure a stable and a predictable funding stream is available for these programs.    And I know the chairman and my colleagues on this subcommittee share that goal. And we look forward to hearing how you plan to ensure our readiness goals are met through engaging our public and private shipyards, and intermediate maintenance repair facilities.    And I yield back, and thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Whitney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Admiral Whitney. Good morning. Chairman Wittman, Ranking Member Bordallo, and distinguished members of the House Armed Services Readiness Subcommittee, I appreciate the opportunity to testify about the naval shipyards' critical role in meeting the Navy's operational requirements.    I am privileged to have worked in and around the naval shipyards for over 20 years. This includes the honor of having been the commander of a naval shipyard.    Today I am before you representing the more than 33,000 civilian and military dedicated and patriotic professionals who give their life every day to serve our country and fix our ships.    These heroes come to work, put on a hard hat and safety shoes, and stand ready to service our great Navy, any time, any place, to ensure our sailors are always ready to stand the watch.    Today I am prepared to discuss the challenges that this workforce faces to improve performance and reduce the maintenance backlogs at the naval shipyards that have prevented us from getting back to the fleet the ships that they urgently need, as well as discuss the initiatives that we are taking to address those challenges.    The workforce at the naval shipyard is engaged. They are tackling the challenges and embracing the improvement initiatives every single day, and they work towards one goal--the successful delivery of ships back to the fleet.    The four public shipyards--Portsmouth, Norfolk, Puget Sound, and Pearl Harbor--are owned and funded by the fleets and operated by the Naval Sea Systems Command.    The naval shipyards ensure that the Navy has the essential and organic capability to perform cradle-to-grave service for our nuclear-powered aircraft carrier and submarines. The workforce provides the services that are vital to sustain the fleet's operational availability and ensure mission success.    The naval shipyards' performance has been challenged in the past 3 years due to increased workload that is coupled by an increased number of new and less experienced workers.    In fiscal year 2014, the naval shipyards executed 4.7 million man-days of workload. This workload has continued to increase through fiscal year 2015 and will increase through fiscal year 2017, likely peaking in fiscal year 2018. This increase has been caused, in part, by the high operational tempo of the fleet and extended deployments that has been described in previous testimony.    The primary solution is to resolve the workload-to-workforce imbalance by increasing the workforce to the right level so that we can have a fighting chance to get the required maintenance completed on time and on budget.    The solution set also includes training and developing the new workforce and its management team, as well as diligently working on process improvement. We will achieve success by utilizing our apprentice programs and other workforce development efforts in conjunction with productivity improvement initiatives.    The challenge of the last 2 years has been hiring to an appropriate level across the naval shipyards. In fiscal year 2013, the naval shipyards had about 29,000 full-time equivalents. With the impact of sequestration, a hiring freeze, and increased workload, accelerated hiring has been necessary.    The fiscal year 2016 budget supports an increase in the shipyard workforce to achieve 33,500 direct and indirect full-time equivalents. In 2014, this number, including private sector partner assistants, was determined to be the appropriate size workforce needed to execute the increasing workload and reset the workload-to-workforce imbalance.    Shipyard availability performance, warfighter readiness, and fleet forward-deployed presence are directly linked to the capabilities provided by the efficient operation of the naval shipyard facilities.    Naval Sea Systems Command continues to prioritize the sustainment and recapitalization of the naval shipyards' infrastructure.    Investments continue to focus on mission-critical facilities inside the controlled industrial area, which primarily include production shops, piers, wharfs, dry docks, and supporting utility systems.    Naval Sea Systems Command is focused on the naval shipyards' information technology systems, as well. These systems are outdated and a challenge to support as we push to new cybersecurity standards.    Naval Sea Systems Command is implementing solutions to the maintenance information systems to address critical cybersecurity vulnerabilities and increase workforce productivity.    Overall, facility investments are prioritized to address the most critical capability, safety, productivity deficiencies associated with these mission-critical facilities.    The hardworking, dedicated professionals across the naval shipyards stand with me to tackle these challenges face-on. Our focus each and every day is to get our Navy ships back to sea when the fleet needs them in support of O-FRP.    Again, thank you for inviting me here today before this committee, and I thank you for your continued and crucial support of the naval shipyards. I will be glad to take any questions that you have.    [The prepared statement of Admiral Whitney can be found in the Appendix on page 20.]</t>
   </si>
   <si>
@@ -112,6 +130,12 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. I do have one quick question. And may not even be appropriate to answer it in this setting, to be honest with you. I think you probably, sir, have a great understanding of what readiness means. And what you would feel would be 100 percent readiness within your jurisdiction.    And like I said, it may not be appropriate to answer in this setting, but I would be curious to know what percentage of readiness you feel we are at right now.</t>
   </si>
   <si>
@@ -139,6 +163,12 @@
     <t>412523</t>
   </si>
   <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peters. Thank you, Mr. Chairman.    Actually Ms. Bordallo asked my question about the sequester and coming up on this month and just want to express my concern that we continue to work with you and the committee on coming up with a strategy--I think O-FRP is a good start--to deal with a tough budget situation.    But we need to get back to a situation where we are doing regular budgets over more than a year, so that there is more dependability and more ability to plan. I want you to know that I have that in mind. Thank you for being with us today.</t>
   </si>
   <si>
@@ -148,6 +178,12 @@
     <t>412444</t>
   </si>
   <si>
+    <t>Hartzler</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Hartzler. Thank you, Mr. Chairman. Thank you, Admiral.    Just wondering when you talked about the workforce and how you are plussing up the number of people that you are hiring to make up for the backlog. So what is the shipyards doing to address the relative inexperience of this workforce?</t>
   </si>
   <si>
@@ -212,6 +248,12 @@
   </si>
   <si>
     <t>412193</t>
+  </si>
+  <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. And good to see you again, Admiral.    Just to follow up a couple of the comments that the chairman made. Yes, again, it looks like you have made some impressive progress in terms of boosting the hires in the last year or so.    Secretary Perez of the U.S. Department of Labor was up in Groton last summer, where, again, there is nothing as dramatic as what is going on with the public yards, but clearly, you know, the need--what, if nothing else, the sort of a generational refresh is sort of got the apprenticeship programs sort of open for business again.    You know, one of the apprenticeship programs we visited was at the welding area, you know, you have actually two generations of welders that were sort of doing the presentation. One who was in his 60s, another who was his son, who was actually in his sort of late 30s, early 40s.    And they were talking about, sort of--you know, as you, I think I heard you as I just came in, is you know, what is a welder? Again, you can hire someone and put them in that job classification. But what we heard that day was that, you know, really--aside from sort of the initial apprenticeship stint, I mean, the fact of the matter is, is you need somebody looking over the shoulder of that new person for some period of time.    I mean, a year, 2 years or so. And then, they can sort of start doing sort of basic welds, but in terms of a real--sort of master welder, I mean, you are talking years before you really have sort of--got that person up to a qualification.    And frankly, there is a lot of risk in terms of, you know, retention. Because there is--you know, with advanced manufacturing just sort of taking off in aerospace, you know, you name it. The fact of the matter is, is that, you know, sort of holding on to these folks really makes sort of the initial numbers that we see in today's testimony, I mean, really are just sort of the beginning of the challenge for, you know, having a workforce that is ready to take on these challenges.    And I was sort of wondering, I mean, have you sort of built in, sort of the fact that there is going to be attrition over the time period? And frankly, that there is still a gap in terms of timing to get people really up to doing these.    You don't want mistakes. You know better than anybody in terms of submarines or surface ships in terms of bad welds, or people who, you know, really aren't ready for the job.</t>
@@ -608,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +658,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,1541 +680,1814 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
       <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
       <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
       <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>54</v>
+      </c>
       <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>78</v>
+      </c>
       <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G52" t="s">
+        <v>78</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="G58" t="s">
+        <v>78</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97195.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97195.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412255</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wittman</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400041</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Bordallo</t>
   </si>
   <si>
@@ -128,6 +137,9 @@
   </si>
   <si>
     <t>412564</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Wenstrup</t>
@@ -650,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,7 +670,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,1811 +695,1956 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>43</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G52" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
